--- a/biology/Botanique/Bordure_mixte/Bordure_mixte.xlsx
+++ b/biology/Botanique/Bordure_mixte/Bordure_mixte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bordure mixte, bordure mélangée ou mixed-border est un type de plate-bande d'origine anglaise, caractérisée par le fait que toutes les plantes doivent se mêler, tout en restant visibles, aucune plante ne devant en concurrencer une autre. Les plantes sont donc juxtaposées en harmonisant les couleurs, mais pas forcément le port. C'est un massif assez libre dans sa composition, sans régularité, composé essentiellement de fleurs qui sont placées en groupes dans et autour d'arbustes et de plantes couvre-sol.
 </t>
